--- a/Tanques/Tanque_Parametrizado/Workspaces/Workspace/Medidas1.xlsx
+++ b/Tanques/Tanque_Parametrizado/Workspaces/Workspace/Medidas1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Computacion Grafica\main\Tanques\Tanque_Parametrizado\Workspaces\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC147B6-5D43-4B68-80C6-6C5D8A3E8FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C112CBE-40F6-4C3F-BD89-A7DE7E8AC5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{863C6CB6-A346-45B7-AD5E-154EB281B96F}"/>
   </bookViews>
@@ -264,7 +264,7 @@
         </row>
         <row r="4">
           <cell r="H4" t="str">
-            <v>Terpel_x000D_</v>
+            <v>Universidad Nacional de Colombia_x000D_</v>
           </cell>
         </row>
       </sheetData>
@@ -855,7 +855,7 @@
       </c>
       <c r="E16" t="str">
         <f>[1]DAQ!$H$4</f>
-        <v>Terpel_x000D_</v>
+        <v>Universidad Nacional de Colombia_x000D_</v>
       </c>
     </row>
   </sheetData>
